--- a/biology/Botanique/Bafodeya_benna/Bafodeya_benna.xlsx
+++ b/biology/Botanique/Bafodeya_benna/Bafodeya_benna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bafodeya benna est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre que l'on ne retrouve qu'en Guinée et au Sierra Leone. C'est la seule espèce connue du genre Bafodeya.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parinari benna Scott-Elliot[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Parinari benna Scott-Elliot.</t>
         </is>
       </c>
     </row>
@@ -541,10 +555,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En Soussou: Sigmyi
-En Malinké: Sigonai[2].</t>
+En Malinké: Sigonai.</t>
         </is>
       </c>
     </row>
@@ -572,7 +588,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste ou arbre atteignant 10 m de haut.
 </t>
@@ -603,9 +621,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique aux savanes arborées du Massif montagneux de Fouta-Djalon en Guinée et des zones adjacentes du Sierra Leone et peut-être au Mali, entre 900 et 1 100 mètres d'altitude[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique aux savanes arborées du Massif montagneux de Fouta-Djalon en Guinée et des zones adjacentes du Sierra Leone et peut-être au Mali, entre 900 et 1 100 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -634,9 +654,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est utilisé comme vermifuge par les populations locales[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est utilisé comme vermifuge par les populations locales.
 </t>
         </is>
       </c>
